--- a/Docs/TablasDatos-Reto2.xlsx
+++ b/Docs/TablasDatos-Reto2.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uniandes-my.sharepoint.com/personal/n_aparicioc_uniandes_edu_co/Documents/2021_02/Estructura de Datos y Algoritmos/Retos/Reto1-G01/Docs/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uniandes-my.sharepoint.com/personal/n_aparicioc_uniandes_edu_co/Documents/2021_02/Estructura de Datos y Algoritmos/Retos/Reto2-G01/Docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="125" documentId="13_ncr:1_{03378F29-474C-4872-A65F-A19769A8FA40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{57A42C8E-521B-4FEE-B27A-6D213079130C}"/>
+  <xr:revisionPtr revIDLastSave="267" documentId="13_ncr:1_{03378F29-474C-4872-A65F-A19769A8FA40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0B7E1F16-6B88-4C06-8D6B-B5AFB66F05A1}"/>
   <bookViews>
     <workbookView xWindow="-24120" yWindow="1725" windowWidth="24240" windowHeight="13140" xr2:uid="{D82936D8-D2C9-4EB2-9CBC-3665F65B95FD}"/>
   </bookViews>
   <sheets>
-    <sheet name="Datos Reto1" sheetId="1" r:id="rId1"/>
+    <sheet name="Datos Reto2" sheetId="1" r:id="rId1"/>
     <sheet name="Graf Requerimientos" sheetId="6" r:id="rId2"/>
-    <sheet name="Graf Req4" sheetId="12" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -81,7 +80,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -105,6 +104,20 @@
       <color theme="1"/>
       <name val="Dax-Regular"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -114,7 +127,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -137,11 +150,70 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -159,12 +231,31 @@
     <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -186,7 +277,7 @@
         <name val="Dax-Regular"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="2" formatCode="0.00"/>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -194,31 +285,22 @@
         </patternFill>
       </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Dax-Regular"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -244,6 +326,104 @@
         </patternFill>
       </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Dax-Regular"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Dax-Regular"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -311,7 +491,6 @@
         <name val="Dax-Regular"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -384,6 +563,120 @@
         </patternFill>
       </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Dax-Regular"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Dax-Regular"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Dax-Regular"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Dax-Regular"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -431,391 +724,6 @@
         <left style="thin">
           <color indexed="64"/>
         </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Dax-Regular"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Dax-Regular"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Dax-Regular"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Dax-Regular"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Dax-Regular"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Dax-Regular"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Dax-Regular"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Dax-Regular"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Dax-Regular"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
         <right style="thin">
           <color indexed="64"/>
         </right>
@@ -913,6 +821,7 @@
         <name val="Dax-Regular"/>
         <scheme val="none"/>
       </font>
+      <numFmt numFmtId="2" formatCode="0.00"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -920,6 +829,24 @@
         </patternFill>
       </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -933,17 +860,18 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="11"/>
-        <color rgb="FF000000"/>
+        <color theme="1"/>
         <name val="Dax-Regular"/>
         <scheme val="none"/>
       </font>
+      <numFmt numFmtId="2" formatCode="0.00"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -951,8 +879,12 @@
         <right style="thin">
           <color indexed="64"/>
         </right>
-        <top/>
-        <bottom/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
         <vertical style="thin">
           <color indexed="64"/>
         </vertical>
@@ -997,6 +929,177 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Dax-Regular"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Dax-Regular"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Dax-Regular"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Dax-Regular"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
         <color theme="1"/>
         <name val="Dax-Regular"/>
         <scheme val="none"/>
@@ -1021,7 +1124,7 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="11"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <name val="Dax-Regular"/>
         <scheme val="none"/>
       </font>
@@ -1032,6 +1135,22 @@
         </patternFill>
       </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1083,7 +1202,31 @@
               <a:rPr lang="es-419" sz="1800" b="1">
                 <a:effectLst/>
               </a:rPr>
-              <a:t>Comparación de tiempos de ejecucion de cada uno de los requerimientos, implementando ARRAY_LIST y MergeSort</a:t>
+              <a:t>Comparación de tiempos de ejecucion de cada uno de los requerimientos, implementando Maps,</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="es-419" sz="1800" b="1" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="es-419" sz="1800" b="1">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Single-Linked</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="es-419" sz="1800" b="1" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="es-419" sz="1800" b="1">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>y MergeSort</a:t>
             </a:r>
             <a:endParaRPr lang="en-US" sz="1800" b="1">
               <a:effectLst/>
@@ -1131,7 +1274,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Datos Reto1'!$D$1:$D$5</c:f>
+              <c:f>'Datos Reto2'!$D$1:$D$5</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -1173,36 +1316,48 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Datos Reto1'!$A$3:$A$5</c:f>
+              <c:f>'Datos Reto2'!$A$2:$A$6</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.1</c:v>
+                  <c:v>0.2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.2</c:v>
+                  <c:v>0.3</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Datos Reto1'!$C$3:$C$5</c:f>
+              <c:f>'Datos Reto2'!$C$2:$C$6</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>58</c:v>
+                  <c:v>440</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>83</c:v>
+                  <c:v>550</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>66</c:v>
+                  <c:v>730</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>550</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>750</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1219,7 +1374,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Datos Reto1'!$D$7:$D$11</c:f>
+              <c:f>'Datos Reto2'!$D$8:$D$12</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -1255,36 +1410,48 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Datos Reto1'!$A$9:$A$11</c:f>
+              <c:f>'Datos Reto2'!$A$9:$A$13</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.1</c:v>
+                  <c:v>0.2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.2</c:v>
+                  <c:v>0.3</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Datos Reto1'!$C$9:$C$11</c:f>
+              <c:f>'Datos Reto2'!$C$9:$C$13</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>1045</c:v>
+                  <c:v>1230</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2023</c:v>
+                  <c:v>3590</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5089</c:v>
+                  <c:v>4360</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9410</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9690</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1301,7 +1468,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Datos Reto1'!$D$13:$D$17</c:f>
+              <c:f>'Datos Reto2'!$D$15:$D$19</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -1337,36 +1504,48 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Datos Reto1'!$A$15:$A$17</c:f>
+              <c:f>'Datos Reto2'!$A$16:$A$20</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.1</c:v>
+                  <c:v>0.2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.2</c:v>
+                  <c:v>0.3</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Datos Reto1'!$C$15:$C$17</c:f>
+              <c:f>'Datos Reto2'!$C$16:$C$20</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>35</c:v>
+                  <c:v>380</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>82</c:v>
+                  <c:v>450</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1013</c:v>
+                  <c:v>480</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1100</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>710</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1379,13 +1558,113 @@
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="2"/>
+          <c:idx val="3"/>
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Datos Reto1'!$D$25:$D$29</c:f>
+              <c:f>'Datos Reto2'!$D$22:$D$27</c:f>
               <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>
+REQUERIMIENTO 4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Datos Reto2'!$A$23:$A$27</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Datos Reto2'!$C$23:$C$27</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>930</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2660</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3550</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4110</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5330</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-185A-4B3C-9BA6-21B5A0884119}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Datos Reto2'!$D$29:$D$34</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>
 REQUERIMIENTO 5</c:v>
@@ -1419,36 +1698,48 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Datos Reto1'!$A$27:$A$29</c:f>
+              <c:f>'Datos Reto2'!$A$30:$A$34</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.1</c:v>
+                  <c:v>0.2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.2</c:v>
+                  <c:v>0.3</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Datos Reto1'!$C$27:$C$29</c:f>
+              <c:f>'Datos Reto2'!$C$30:$C$34</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>1085</c:v>
+                  <c:v>2110</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2040</c:v>
+                  <c:v>5680</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6040</c:v>
+                  <c:v>8350</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10710</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12340</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1456,7 +1747,7 @@
           <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-B73B-4E57-BF6C-022E3489E2C8}"/>
+              <c16:uniqueId val="{00000002-185A-4B3C-9BA6-21B5A0884119}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1793,594 +2084,11 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US" b="1"/>
-              <a:t>Comparación de tiempos de ejecución para</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" b="1" baseline="0"/>
-              <a:t> el Requerimiento 4, usando ARRAY_LIST y MergeSort</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US" b="1"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.15732814388744515"/>
-          <c:y val="1.8188789242384502E-2"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="es-CO"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="smoothMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Datos Reto1'!$D$19:$D$23</c:f>
-              <c:strCache>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>
-REQUERIMIENTO 4</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="poly"/>
-            <c:order val="2"/>
-            <c:dispRSqr val="1"/>
-            <c:dispEq val="1"/>
-            <c:trendlineLbl>
-              <c:numFmt formatCode="General" sourceLinked="0"/>
-              <c:spPr>
-                <a:noFill/>
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="65000"/>
-                          <a:lumOff val="35000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="es-CO"/>
-                </a:p>
-              </c:txPr>
-            </c:trendlineLbl>
-          </c:trendline>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'Datos Reto1'!$A$21:$A$23</c:f>
-              <c:numCache>
-                <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>0.1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.5</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'Datos Reto1'!$C$21:$C$23</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>100025</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>197087</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>554750</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-32BC-41BA-A5CC-1F1B9359C7C7}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="1328118000"/>
-        <c:axId val="1328121328"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="1328118000"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US" b="1"/>
-                  <a:t>Tamaño</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" b="1" baseline="0"/>
-                  <a:t> de la muestra [Num. elementos]</a:t>
-                </a:r>
-                <a:endParaRPr lang="en-US" b="1"/>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="es-CO"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="0.00%" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="es-CO"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1328121328"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="1328121328"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US" b="1"/>
-                  <a:t>Tiempo de Ejecución [ms]</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="es-CO"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="0.00" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="es-CO"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1328118000"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="es-CO"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="es-CO"/>
-    </a:p>
-  </c:txPr>
-</c:chartSpace>
-</file>
-
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="13">
   <a:schemeClr val="accent6"/>
   <a:schemeClr val="accent5"/>
   <a:schemeClr val="accent4"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
   <cs:variation/>
   <cs:variation>
     <a:lumMod val="60000"/>
@@ -2929,538 +2637,11 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
 <file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{BF2A59F4-6CD8-490D-818C-7B3BB3F2B140}">
   <sheetPr/>
   <sheetViews>
     <sheetView zoomScale="115" workbookViewId="0"/>
-  </sheetViews>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</chartsheet>
-</file>
-
-<file path=xl/chartsheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{B3AE6AD4-6EB7-44ED-A987-5D4A68E7E10B}">
-  <sheetPr/>
-  <sheetViews>
-    <sheetView zoomScale="84" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3500,104 +2681,63 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:absoluteAnchor>
-    <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8656544" cy="6275294"/>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2DBB29D8-2208-4D18-B420-87681137F8B1}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks noGrp="1"/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:absoluteAnchor>
-</xdr:wsDr>
-</file>
-
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{072D0253-75B0-4C0B-8972-D03303899249}" name="Table1" displayName="Table1" ref="A1:C5" totalsRowShown="0" headerRowDxfId="14" dataDxfId="24">
-  <autoFilter ref="A1:C5" xr:uid="{B245DDE7-54F2-4A7A-AC17-5CA17DD7B03F}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{072D0253-75B0-4C0B-8972-D03303899249}" name="Table1" displayName="Table1" ref="A1:C6" totalsRowShown="0" headerRowDxfId="24" dataDxfId="23">
+  <autoFilter ref="A1:C6" xr:uid="{B245DDE7-54F2-4A7A-AC17-5CA17DD7B03F}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{A7AF2A2F-BC4B-404E-9B8B-256DA178E68B}" name="Porcentaje de la muestra [pct]" dataDxfId="17"/>
-    <tableColumn id="2" xr3:uid="{23CECC62-35E0-466E-9502-4F5CC2E6F7A7}" name="Tamaño de la muestra (ARRAYLIST)" dataDxfId="16">
+    <tableColumn id="1" xr3:uid="{A7AF2A2F-BC4B-404E-9B8B-256DA178E68B}" name="Porcentaje de la muestra [pct]" dataDxfId="22"/>
+    <tableColumn id="2" xr3:uid="{23CECC62-35E0-466E-9502-4F5CC2E6F7A7}" name="Tamaño de la muestra (ARRAYLIST)" dataDxfId="21">
       <calculatedColumnFormula>Table1[[#This Row],[Porcentaje de la muestra '[pct']]]*10000</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{6FC8F4B7-6274-4B14-98D8-0E00E479351A}" name="Merge Sort [ms]" dataDxfId="15"/>
+    <tableColumn id="6" xr3:uid="{6FC8F4B7-6274-4B14-98D8-0E00E479351A}" name="Merge Sort [ms]" dataDxfId="20"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{DBB348B5-6D0C-4908-ABEA-DF366DE3CD5E}" name="Table13" displayName="Table13" ref="A7:C11" totalsRowShown="0" headerRowDxfId="10" dataDxfId="23">
-  <autoFilter ref="A7:C11" xr:uid="{DBB348B5-6D0C-4908-ABEA-DF366DE3CD5E}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{DBB348B5-6D0C-4908-ABEA-DF366DE3CD5E}" name="Table13" displayName="Table13" ref="A8:C13" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18">
+  <autoFilter ref="A8:C13" xr:uid="{DBB348B5-6D0C-4908-ABEA-DF366DE3CD5E}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{90C7F3C0-DD9C-4824-ABAB-2394572BDA0A}" name="Porcentaje de la muestra [pct]" dataDxfId="13"/>
-    <tableColumn id="2" xr3:uid="{B016798D-458D-4F0B-938F-EC03517598D6}" name="Tamaño de la muestra (ARRAYLIST)" dataDxfId="12">
-      <calculatedColumnFormula>Table13[[#This Row],[Porcentaje de la muestra '[pct']]]*10000</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="6" xr3:uid="{51BA4C31-95AD-4B0D-BA14-2B9C81A1B9B5}" name="Merge Sort [ms]" dataDxfId="11"/>
+    <tableColumn id="1" xr3:uid="{90C7F3C0-DD9C-4824-ABAB-2394572BDA0A}" name="Porcentaje de la muestra [pct]" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{B016798D-458D-4F0B-938F-EC03517598D6}" name="Tamaño de la muestra (ARRAYLIST)" dataDxfId="17"/>
+    <tableColumn id="6" xr3:uid="{51BA4C31-95AD-4B0D-BA14-2B9C81A1B9B5}" name="Merge Sort [ms]" dataDxfId="16"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{84B39FFC-2F1A-4883-BC7E-CFF899EA51E2}" name="Table14" displayName="Table14" ref="A13:C17" totalsRowShown="0" headerRowDxfId="6" dataDxfId="22">
-  <autoFilter ref="A13:C17" xr:uid="{84B39FFC-2F1A-4883-BC7E-CFF899EA51E2}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{84B39FFC-2F1A-4883-BC7E-CFF899EA51E2}" name="Table14" displayName="Table14" ref="A15:C20" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14">
+  <autoFilter ref="A15:C20" xr:uid="{84B39FFC-2F1A-4883-BC7E-CFF899EA51E2}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{017AA57E-8DD5-422E-B311-65902F5C7F44}" name="Porcentaje de la muestra [pct]" dataDxfId="9"/>
-    <tableColumn id="2" xr3:uid="{906551C7-35B0-4EF8-B372-3DEEA0327F79}" name="Tamaño de la muestra (ARRAYLIST)" dataDxfId="8">
-      <calculatedColumnFormula>Table14[[#This Row],[Porcentaje de la muestra '[pct']]]*10000</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="6" xr3:uid="{42C9A160-2EB5-414F-8098-F823836498CB}" name="Merge Sort [ms]" dataDxfId="7"/>
+    <tableColumn id="1" xr3:uid="{017AA57E-8DD5-422E-B311-65902F5C7F44}" name="Porcentaje de la muestra [pct]" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{906551C7-35B0-4EF8-B372-3DEEA0327F79}" name="Tamaño de la muestra (ARRAYLIST)" dataDxfId="13"/>
+    <tableColumn id="6" xr3:uid="{42C9A160-2EB5-414F-8098-F823836498CB}" name="Merge Sort [ms]" dataDxfId="12"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{72D6CEF3-7C72-4711-8B60-40ABB7F16CB2}" name="Table15" displayName="Table15" ref="A19:C23" totalsRowShown="0" headerRowDxfId="21" dataDxfId="20">
-  <autoFilter ref="A19:C23" xr:uid="{72D6CEF3-7C72-4711-8B60-40ABB7F16CB2}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{72D6CEF3-7C72-4711-8B60-40ABB7F16CB2}" name="Table15" displayName="Table15" ref="A22:C27" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
+  <autoFilter ref="A22:C27" xr:uid="{72D6CEF3-7C72-4711-8B60-40ABB7F16CB2}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{265A4851-B686-4508-ACED-7AB96D28F85E}" name="Porcentaje de la muestra [pct]" dataDxfId="5"/>
-    <tableColumn id="2" xr3:uid="{751D5E70-9656-4153-BFFB-1223091C795E}" name="Tamaño de la muestra (ARRAYLIST)" dataDxfId="4">
-      <calculatedColumnFormula>Table15[[#This Row],[Porcentaje de la muestra '[pct']]]*10000</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="6" xr3:uid="{57373881-D7A9-4D01-830A-ADD31CDD6A77}" name="Merge Sort [ms]" dataDxfId="3"/>
+    <tableColumn id="1" xr3:uid="{265A4851-B686-4508-ACED-7AB96D28F85E}" name="Porcentaje de la muestra [pct]" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{751D5E70-9656-4153-BFFB-1223091C795E}" name="Tamaño de la muestra (ARRAYLIST)" dataDxfId="9"/>
+    <tableColumn id="6" xr3:uid="{57373881-D7A9-4D01-830A-ADD31CDD6A77}" name="Merge Sort [ms]" dataDxfId="8"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{58B39ECB-9B80-49EF-9537-303D5114D093}" name="Table16" displayName="Table16" ref="A25:C29" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18">
-  <autoFilter ref="A25:C29" xr:uid="{58B39ECB-9B80-49EF-9537-303D5114D093}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{58B39ECB-9B80-49EF-9537-303D5114D093}" name="Table16" displayName="Table16" ref="A29:C34" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
+  <autoFilter ref="A29:C34" xr:uid="{58B39ECB-9B80-49EF-9537-303D5114D093}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{31033623-2442-435D-9298-B73F3E2E4B6A}" name="Porcentaje de la muestra [pct]" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{5D76A9E6-4696-4D54-9051-8448CC80DD6E}" name="Tamaño de la muestra (ARRAYLIST)" dataDxfId="1">
-      <calculatedColumnFormula>Table16[[#This Row],[Porcentaje de la muestra '[pct']]]*10000</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="6" xr3:uid="{0D4BE287-294C-4A33-8567-24CF27E91932}" name="Merge Sort [ms]" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{31033623-2442-435D-9298-B73F3E2E4B6A}" name="Porcentaje de la muestra [pct]" dataDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{5D76A9E6-4696-4D54-9051-8448CC80DD6E}" name="Tamaño de la muestra (ARRAYLIST)" dataDxfId="5"/>
+    <tableColumn id="6" xr3:uid="{0D4BE287-294C-4A33-8567-24CF27E91932}" name="Merge Sort [ms]" dataDxfId="4"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3903,7 +3043,7 @@
   <dimension ref="A1:F35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:D5"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -3926,107 +3066,107 @@
       <c r="C1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="11" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="4">
-        <v>0.05</v>
+        <v>0.2</v>
       </c>
       <c r="B2" s="5">
-        <v>12568</v>
+        <v>38213</v>
       </c>
       <c r="C2" s="6">
-        <v>40</v>
-      </c>
-      <c r="D2" s="8"/>
+        <v>440</v>
+      </c>
+      <c r="D2" s="12"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="4">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="B3" s="5">
-        <v>21664</v>
+        <v>53767</v>
       </c>
       <c r="C3" s="6">
-        <v>58</v>
-      </c>
-      <c r="D3" s="8"/>
+        <v>550</v>
+      </c>
+      <c r="D3" s="12"/>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="4">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="B4" s="5">
-        <v>38213</v>
+        <v>83569</v>
       </c>
       <c r="C4" s="6">
-        <v>83</v>
-      </c>
-      <c r="D4" s="8"/>
+        <v>730</v>
+      </c>
+      <c r="D4" s="12"/>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="4">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="B5" s="5">
-        <v>83569</v>
+        <v>125924</v>
       </c>
       <c r="C5" s="6">
-        <v>66</v>
-      </c>
-      <c r="D5" s="8"/>
+        <v>550</v>
+      </c>
+      <c r="D5" s="12"/>
     </row>
-    <row r="7" spans="1:6" ht="30">
-      <c r="A7" s="3" t="s">
+    <row r="6" spans="1:6">
+      <c r="A6" s="7">
         <v>1</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B6" s="9">
+        <v>153373</v>
+      </c>
+      <c r="C6" s="10">
+        <v>750</v>
+      </c>
+      <c r="D6" s="13"/>
+    </row>
+    <row r="8" spans="1:6" ht="30">
+      <c r="A8" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C8" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D8" s="11" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="4">
-        <v>0.05</v>
-      </c>
-      <c r="B8" s="5">
-        <v>12568</v>
-      </c>
-      <c r="C8" s="6">
-        <v>48</v>
-      </c>
-      <c r="D8" s="8"/>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="4">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="B9" s="5">
-        <v>21664</v>
+        <v>38213</v>
       </c>
       <c r="C9" s="6">
-        <v>1045</v>
-      </c>
-      <c r="D9" s="8"/>
+        <v>1230</v>
+      </c>
+      <c r="D9" s="12"/>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="4">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="B10" s="5">
-        <v>38213</v>
+        <v>53767</v>
       </c>
       <c r="C10" s="6">
-        <v>2023</v>
-      </c>
-      <c r="D10" s="8"/>
+        <v>3590</v>
+      </c>
+      <c r="D10" s="12"/>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="4">
@@ -4036,55 +3176,49 @@
         <v>83569</v>
       </c>
       <c r="C11" s="6">
-        <v>5089</v>
-      </c>
-      <c r="D11" s="8"/>
+        <v>4360</v>
+      </c>
+      <c r="D11" s="12"/>
     </row>
     <row r="12" spans="1:6" s="2" customFormat="1">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
+      <c r="A12" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="B12" s="5">
+        <v>125924</v>
+      </c>
+      <c r="C12" s="6">
+        <v>9410</v>
+      </c>
+      <c r="D12" s="12"/>
       <c r="E12"/>
       <c r="F12"/>
     </row>
-    <row r="13" spans="1:6" ht="30">
-      <c r="A13" s="3" t="s">
+    <row r="13" spans="1:6">
+      <c r="A13" s="8">
         <v>1</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="9">
+        <v>153373</v>
+      </c>
+      <c r="C13" s="10">
+        <v>9690</v>
+      </c>
+      <c r="D13" s="13"/>
+    </row>
+    <row r="15" spans="1:6" ht="30">
+      <c r="A15" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B15" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C15" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D13" s="7" t="s">
+      <c r="D15" s="11" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" s="4">
-        <v>0.05</v>
-      </c>
-      <c r="B14" s="5">
-        <v>12568</v>
-      </c>
-      <c r="C14" s="6">
-        <v>25</v>
-      </c>
-      <c r="D14" s="8"/>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" s="4">
-        <v>0.1</v>
-      </c>
-      <c r="B15" s="5">
-        <v>21664</v>
-      </c>
-      <c r="C15" s="6">
-        <v>35</v>
-      </c>
-      <c r="D15" s="8"/>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="4">
@@ -4094,169 +3228,222 @@
         <v>38213</v>
       </c>
       <c r="C16" s="6">
-        <v>82</v>
-      </c>
-      <c r="D16" s="8"/>
+        <v>380</v>
+      </c>
+      <c r="D16" s="12"/>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:5">
       <c r="A17" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="B17" s="5">
+        <v>53767</v>
+      </c>
+      <c r="C17" s="6">
+        <v>450</v>
+      </c>
+      <c r="D17" s="12"/>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="4">
         <v>0.5</v>
       </c>
-      <c r="B17" s="5">
+      <c r="B18" s="5">
         <v>83569</v>
       </c>
-      <c r="C17" s="6">
-        <v>1013</v>
-      </c>
-      <c r="D17" s="8"/>
+      <c r="C18" s="6">
+        <v>480</v>
+      </c>
+      <c r="D18" s="12"/>
     </row>
-    <row r="19" spans="1:4" ht="30">
-      <c r="A19" s="3" t="s">
+    <row r="19" spans="1:5">
+      <c r="A19" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="B19" s="5">
+        <v>125924</v>
+      </c>
+      <c r="C19" s="6">
+        <v>1100</v>
+      </c>
+      <c r="D19" s="12"/>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="8">
         <v>1</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B20" s="9">
+        <v>153373</v>
+      </c>
+      <c r="C20" s="10">
+        <v>710</v>
+      </c>
+      <c r="D20" s="13"/>
+    </row>
+    <row r="22" spans="1:5" ht="30">
+      <c r="A22" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B22" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="C22" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D19" s="7" t="s">
+      <c r="D22" s="11" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
-      <c r="A20" s="4">
-        <v>0.05</v>
-      </c>
-      <c r="B20" s="5">
-        <v>12568</v>
-      </c>
-      <c r="C20" s="6">
-        <v>26093</v>
-      </c>
-      <c r="D20" s="8"/>
+    <row r="23" spans="1:5">
+      <c r="A23" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="B23" s="5">
+        <v>38213</v>
+      </c>
+      <c r="C23" s="6">
+        <v>930</v>
+      </c>
+      <c r="D23" s="12"/>
     </row>
-    <row r="21" spans="1:4">
-      <c r="A21" s="4">
-        <v>0.1</v>
-      </c>
-      <c r="B21" s="5">
-        <v>21664</v>
-      </c>
-      <c r="C21" s="6">
-        <v>100025</v>
-      </c>
-      <c r="D21" s="8"/>
+    <row r="24" spans="1:5">
+      <c r="A24" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="B24" s="5">
+        <v>53767</v>
+      </c>
+      <c r="C24" s="6">
+        <v>2660</v>
+      </c>
+      <c r="D24" s="12"/>
     </row>
-    <row r="22" spans="1:4">
-      <c r="A22" s="4">
+    <row r="25" spans="1:5">
+      <c r="A25" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="B25" s="5">
+        <v>83569</v>
+      </c>
+      <c r="C25" s="6">
+        <v>3550</v>
+      </c>
+      <c r="D25" s="12"/>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="B26" s="5">
+        <v>125924</v>
+      </c>
+      <c r="C26" s="6">
+        <v>4110</v>
+      </c>
+      <c r="D26" s="12"/>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="8">
+        <v>1</v>
+      </c>
+      <c r="B27" s="9">
+        <v>153373</v>
+      </c>
+      <c r="C27" s="14">
+        <v>5330</v>
+      </c>
+      <c r="D27" s="13"/>
+    </row>
+    <row r="29" spans="1:5" ht="30">
+      <c r="A29" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D29" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="4">
         <v>0.2</v>
       </c>
-      <c r="B22" s="5">
+      <c r="B30" s="5">
         <v>38213</v>
       </c>
-      <c r="C22" s="6">
-        <v>197087</v>
-      </c>
-      <c r="D22" s="8"/>
+      <c r="C30" s="6">
+        <v>2110</v>
+      </c>
+      <c r="D30" s="12"/>
     </row>
-    <row r="23" spans="1:4">
-      <c r="A23" s="4">
+    <row r="31" spans="1:5">
+      <c r="A31" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="B31" s="5">
+        <v>53767</v>
+      </c>
+      <c r="C31" s="6">
+        <v>5680</v>
+      </c>
+      <c r="D31" s="12"/>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="4">
         <v>0.5</v>
       </c>
-      <c r="B23" s="5">
+      <c r="B32" s="5">
         <v>83569</v>
       </c>
-      <c r="C23" s="6">
-        <v>554750</v>
-      </c>
-      <c r="D23" s="8"/>
+      <c r="C32" s="6">
+        <v>8350</v>
+      </c>
+      <c r="D32" s="12"/>
+      <c r="E32" s="15"/>
     </row>
-    <row r="25" spans="1:4" ht="30">
-      <c r="A25" s="3" t="s">
+    <row r="33" spans="1:4">
+      <c r="A33" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="B33" s="5">
+        <v>125924</v>
+      </c>
+      <c r="C33" s="6">
+        <v>10710</v>
+      </c>
+      <c r="D33" s="12"/>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="8">
         <v>1</v>
       </c>
-      <c r="B25" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D25" s="7" t="s">
-        <v>7</v>
-      </c>
+      <c r="B34" s="9">
+        <v>153373</v>
+      </c>
+      <c r="C34" s="14">
+        <v>12340</v>
+      </c>
+      <c r="D34" s="13"/>
     </row>
-    <row r="26" spans="1:4">
-      <c r="A26" s="4">
-        <v>0.05</v>
-      </c>
-      <c r="B26" s="5">
-        <v>12568</v>
-      </c>
-      <c r="C26" s="6">
-        <v>55</v>
-      </c>
-      <c r="D26" s="8"/>
+    <row r="35" spans="1:4">
+      <c r="A35"/>
+      <c r="B35"/>
+      <c r="C35"/>
+      <c r="D35"/>
     </row>
-    <row r="27" spans="1:4">
-      <c r="A27" s="4">
-        <v>0.1</v>
-      </c>
-      <c r="B27" s="5">
-        <v>21664</v>
-      </c>
-      <c r="C27" s="6">
-        <v>1085</v>
-      </c>
-      <c r="D27" s="8"/>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="A28" s="4">
-        <v>0.2</v>
-      </c>
-      <c r="B28" s="5">
-        <v>38213</v>
-      </c>
-      <c r="C28" s="6">
-        <v>2040</v>
-      </c>
-      <c r="D28" s="8"/>
-    </row>
-    <row r="29" spans="1:4">
-      <c r="A29" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="B29" s="5">
-        <v>83569</v>
-      </c>
-      <c r="C29" s="6">
-        <v>6040</v>
-      </c>
-      <c r="D29" s="8"/>
-    </row>
-    <row r="31" spans="1:4">
-      <c r="A31"/>
-      <c r="B31"/>
-      <c r="C31"/>
-      <c r="D31"/>
-    </row>
-    <row r="32" spans="1:4">
-      <c r="A32"/>
-      <c r="B32"/>
-      <c r="C32"/>
-      <c r="D32"/>
-    </row>
-    <row r="33" customFormat="1"/>
-    <row r="34" customFormat="1"/>
-    <row r="35" customFormat="1"/>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="D1:D5"/>
-    <mergeCell ref="D7:D11"/>
-    <mergeCell ref="D13:D17"/>
-    <mergeCell ref="D19:D23"/>
-    <mergeCell ref="D25:D29"/>
+    <mergeCell ref="D8:D13"/>
+    <mergeCell ref="D15:D20"/>
+    <mergeCell ref="D22:D27"/>
+    <mergeCell ref="D29:D34"/>
+    <mergeCell ref="D1:D6"/>
   </mergeCells>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="5">
     <tablePart r:id="rId1"/>
@@ -4269,112 +3456,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <SharedWithUsers xmlns="85e30bcc-d76c-4413-8e4d-2dce22fb0743">
-      <UserInfo>
-        <DisplayName>Carlos Andres Lozano Garzon</DisplayName>
-        <AccountId>13</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Dario Ernesto Correal Torres</DisplayName>
-        <AccountId>15</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Mario  Fernando De la rosa Rosero</DisplayName>
-        <AccountId>16</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Christian Camilo Aparicio Baquen</DisplayName>
-        <AccountId>50</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Arturo Henao Chaparro</DisplayName>
-        <AccountId>48</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Luis Esteban Florez Salamanca</DisplayName>
-        <AccountId>33</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Ivan David Salazar Cardenas</DisplayName>
-        <AccountId>52</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Juan Carlos Marin Morales</DisplayName>
-        <AccountId>53</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Sofia Duque Gomez</DisplayName>
-        <AccountId>60</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Andres Felipe Romero Brand</DisplayName>
-        <AccountId>91</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Lindsay Vanessa Pinto Morato</DisplayName>
-        <AccountId>92</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Miguel Angel Acosta Walteros</DisplayName>
-        <AccountId>94</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Juan David Diaz Ipuz</DisplayName>
-        <AccountId>90</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Lily Aitana valentina Duque Chavez</DisplayName>
-        <AccountId>17</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Isaac David Bermudez Lara</DisplayName>
-        <AccountId>95</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Daniel Alejandro Angel Fuertes</DisplayName>
-        <AccountId>55</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Jeniffer Liliam Mendoza Espinosa</DisplayName>
-        <AccountId>97</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Kevin Cohen Solano</DisplayName>
-        <AccountId>93</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Cesar Luis Moreno Gonzalez</DisplayName>
-        <AccountId>96</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Jose Cristobal Arroyo Castellanos</DisplayName>
-        <AccountId>54</AccountId>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4595,27 +3682,118 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <SharedWithUsers xmlns="85e30bcc-d76c-4413-8e4d-2dce22fb0743">
+      <UserInfo>
+        <DisplayName>Carlos Andres Lozano Garzon</DisplayName>
+        <AccountId>13</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Dario Ernesto Correal Torres</DisplayName>
+        <AccountId>15</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Mario  Fernando De la rosa Rosero</DisplayName>
+        <AccountId>16</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Christian Camilo Aparicio Baquen</DisplayName>
+        <AccountId>50</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Arturo Henao Chaparro</DisplayName>
+        <AccountId>48</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Luis Esteban Florez Salamanca</DisplayName>
+        <AccountId>33</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Ivan David Salazar Cardenas</DisplayName>
+        <AccountId>52</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Juan Carlos Marin Morales</DisplayName>
+        <AccountId>53</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Sofia Duque Gomez</DisplayName>
+        <AccountId>60</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Andres Felipe Romero Brand</DisplayName>
+        <AccountId>91</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Lindsay Vanessa Pinto Morato</DisplayName>
+        <AccountId>92</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Miguel Angel Acosta Walteros</DisplayName>
+        <AccountId>94</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Juan David Diaz Ipuz</DisplayName>
+        <AccountId>90</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Lily Aitana valentina Duque Chavez</DisplayName>
+        <AccountId>17</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Isaac David Bermudez Lara</DisplayName>
+        <AccountId>95</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Daniel Alejandro Angel Fuertes</DisplayName>
+        <AccountId>55</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Jeniffer Liliam Mendoza Espinosa</DisplayName>
+        <AccountId>97</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Kevin Cohen Solano</DisplayName>
+        <AccountId>93</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Cesar Luis Moreno Gonzalez</DisplayName>
+        <AccountId>96</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Jose Cristobal Arroyo Castellanos</DisplayName>
+        <AccountId>54</AccountId>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{97C5E1E0-C817-4769-9D2D-1DC296B681FA}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F8DF3742-38F2-4B99-B335-CC4F04ED9F45}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="164883f8-7691-4ecf-b54a-664c0d0edefe"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="85e30bcc-d76c-4413-8e4d-2dce22fb0743"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -4640,9 +3818,18 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F8DF3742-38F2-4B99-B335-CC4F04ED9F45}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{97C5E1E0-C817-4769-9D2D-1DC296B681FA}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="164883f8-7691-4ecf-b54a-664c0d0edefe"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="85e30bcc-d76c-4413-8e4d-2dce22fb0743"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>